--- a/Data/habitacionesDatah3.xlsx
+++ b/Data/habitacionesDatah3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5568877D-95E4-8640-8A48-55FD2E9307D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438F177D-F517-A54D-A3F2-FF0AF6B297F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E955423F-AA58-ED46-A17F-96122CEE6861}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="15520" xr2:uid="{E955423F-AA58-ED46-A17F-96122CEE6861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Id_habitacion</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Completada</t>
+  </si>
+  <si>
+    <t>id_hotel</t>
   </si>
 </sst>
 </file>
@@ -424,165 +427,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE9D630-D230-0E45-933C-6D180AE84450}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>101</v>
+        <v>10003101</v>
       </c>
       <c r="B2">
-        <v>10101</v>
-      </c>
-      <c r="C2" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C2">
+        <v>1000310101</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>102</v>
+        <v>10003102</v>
       </c>
       <c r="B3">
-        <v>10102</v>
-      </c>
-      <c r="C3" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C3">
+        <v>1000310102</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>103</v>
+        <v>10003103</v>
       </c>
       <c r="B4">
-        <v>10103</v>
-      </c>
-      <c r="C4" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C4">
+        <v>1000310103</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>104</v>
+        <v>10003104</v>
       </c>
       <c r="B5">
-        <v>10104</v>
-      </c>
-      <c r="C5" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C5">
+        <v>1000310104</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>105</v>
+        <v>10003105</v>
       </c>
       <c r="B6">
-        <v>10105</v>
-      </c>
-      <c r="C6" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C6">
+        <v>1000310105</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>106</v>
+        <v>10003106</v>
       </c>
       <c r="B7">
-        <v>10106</v>
-      </c>
-      <c r="C7" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C7">
+        <v>1000310106</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>107</v>
+        <v>10003107</v>
       </c>
       <c r="B8">
-        <v>10107</v>
-      </c>
-      <c r="C8" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C8">
+        <v>1000310107</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>108</v>
+        <v>10003108</v>
       </c>
       <c r="B9">
-        <v>10108</v>
-      </c>
-      <c r="C9" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C9">
+        <v>1000310108</v>
+      </c>
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>109</v>
+        <v>10003109</v>
       </c>
       <c r="B10">
-        <v>10109</v>
-      </c>
-      <c r="C10" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C10">
+        <v>1000310109</v>
+      </c>
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>110</v>
+        <v>10003110</v>
       </c>
       <c r="B11">
-        <v>10110</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>10003</v>
+      </c>
+      <c r="C11">
+        <v>1000310110</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>120</v>
       </c>
     </row>
